--- a/Data/subject.xlsx
+++ b/Data/subject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6388CF-B6C7-4764-91DF-58326C463BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163AB62-5332-4944-A312-06CEE6229D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="810" windowWidth="14400" windowHeight="7270" xr2:uid="{A91D50B5-9A31-487A-BCE6-B6A700241C18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A91D50B5-9A31-487A-BCE6-B6A700241C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Subject Name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>subject5</t>
+  </si>
+  <si>
+    <t>subject6</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9096B2AD-E468-495E-A144-B5D1AB5E728A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,6 +475,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/subject.xlsx
+++ b/Data/subject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163AB62-5332-4944-A312-06CEE6229D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D646FBA-4893-43DC-8875-5F6B6AFAABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A91D50B5-9A31-487A-BCE6-B6A700241C18}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Subject Name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>subject6</t>
+  </si>
+  <si>
+    <t>&lt;- Don’t disturb the layout</t>
   </si>
 </sst>
 </file>
@@ -422,23 +425,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9096B2AD-E468-495E-A144-B5D1AB5E728A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -446,7 +455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -454,7 +463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -462,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -470,12 +479,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
